--- a/Classeur1.xlsx
+++ b/Classeur1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\OneDrive - ECAM\Documents\Cours ECAM\4MIN\Q2 21-22\Control theory\2023\Laboratory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{400C8004-AEC8-49B8-9A58-657A8C3AD077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5630A22A-8097-42C3-8C88-E83CD3CD9287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{799A8C1E-06C2-4169-9C7F-BECFFBB80892}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="13">
   <si>
     <t>PT</t>
   </si>
@@ -59,6 +59,12 @@
   <si>
     <t>2eme ordre delta 20</t>
   </si>
+  <si>
+    <t>1er ordre delta30</t>
+  </si>
+  <si>
+    <t>erreur</t>
+  </si>
 </sst>
 </file>
 
@@ -86,7 +92,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -94,18 +100,162 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -316,6 +466,79 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Delta30</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$C$6:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$C$29:$E$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.86020628874092497</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.47307790872501398</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57768199186856595</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-383E-4078-8EF0-013BA45365FA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -394,6 +617,7 @@
         <c:axId val="550727456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0.4"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -518,36 +742,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -636,6 +830,79 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-DC9E-40A8-BD1D-E4F45A55F835}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Delta30</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$C$6:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$C$30:$E$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>291.012430076371</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>187.18141793073599</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>216.416644193221</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6A81-4576-843F-AC0102BFF123}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -717,6 +984,7 @@
         <c:axId val="654545848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="150"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -841,36 +1109,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -957,6 +1195,77 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-0614-4F18-A48A-D18521021CEB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Delta 30</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$C$6:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$C$31:$E$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.9995641037455103</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.41654188856011598</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.99992429606876</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-474E-4A83-97C8-BF64EE8DA065}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3227,10 +3536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4379861B-8E2C-4157-9800-1A920FC20378}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -3261,238 +3570,418 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
+    <row r="5" spans="1:6" ht="14.65" thickBot="1"/>
+    <row r="6" spans="1:6" ht="14.65" thickBot="1">
+      <c r="A6" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="18">
         <v>30</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="18">
         <v>40</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="18">
         <v>50</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="18">
         <v>60</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="19">
         <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" t="s">
+      <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" t="s">
+      <c r="A8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="7">
         <v>1.10646902101237</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="7">
         <v>0.59204744222134598</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="7">
         <v>0.57353288531197</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="7">
         <v>0.56632534601851303</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="8">
         <v>0.58850858438026499</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" t="s">
+      <c r="A9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="7">
         <v>329.18421550760002</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="7">
         <v>219.673541539138</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="7">
         <v>199.41648730815899</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="7">
         <v>199.57982795756601</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="8">
         <v>205.61419194070399</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
+    <row r="10" spans="1:6" ht="14.65" thickBot="1">
+      <c r="A10" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="10">
         <v>0.18419198211416701</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="10">
         <v>0.99993620703082597</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="10">
         <v>1.92824921014351</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="10">
         <v>0.99996839871330701</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="11">
         <v>1.9708109642025</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" t="s">
+      <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" t="s">
+      <c r="A12" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="1">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="7">
         <v>0.48307570663549299</v>
       </c>
-      <c r="E12" s="1"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" t="s">
+      <c r="A13" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="1">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="7">
         <v>189.62594697157101</v>
       </c>
-      <c r="E13" s="1"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="6"/>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
+    <row r="14" spans="1:6" ht="14.65" thickBot="1">
+      <c r="A14" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="1">
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="10">
         <v>0.801881041553692</v>
       </c>
-      <c r="E14" s="1"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="14"/>
     </row>
+    <row r="15" spans="1:6" ht="14.65" thickBot="1"/>
     <row r="16" spans="1:6">
-      <c r="A16" t="s">
+      <c r="A16" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" t="s">
+      <c r="A17" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D17" s="1">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="7">
         <v>0.48305225178646899</v>
       </c>
-      <c r="E17" s="1"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" t="s">
+      <c r="A18" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="1">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="7">
         <v>189.61089890294599</v>
       </c>
-      <c r="E18" s="1"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" t="s">
+      <c r="A19" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="2">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="15">
         <v>4.0980228510604797E-5</v>
       </c>
-      <c r="E19" s="2"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
+    <row r="20" spans="1:6" ht="14.65" thickBot="1">
+      <c r="A20" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="1">
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="10">
         <v>0.41252540897231699</v>
       </c>
-      <c r="E20" s="1"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="14"/>
     </row>
+    <row r="21" spans="1:6" ht="14.65" thickBot="1"/>
     <row r="22" spans="1:6">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" t="s">
+      <c r="A23" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="1">
+      <c r="B23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="7">
         <v>0.55155460986643601</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="7">
         <v>0.55335804020103097</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="7">
         <v>0.52356775990548698</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="8">
         <v>0.52104096235392305</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" t="s">
+      <c r="A24" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="1">
+      <c r="B24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="7">
         <v>191.820109272259</v>
       </c>
-      <c r="D24" s="1">
+      <c r="D24" s="7">
         <v>184.504684095101</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="7">
         <v>166.82715697036301</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="8">
         <v>162.48481405525601</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" t="s">
+      <c r="A25" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="1">
+      <c r="B25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="7">
         <v>4.21919050453399E-2</v>
       </c>
-      <c r="D25" s="2">
+      <c r="D25" s="15">
         <v>1.78243605751087E-7</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="15">
         <v>5.1624129187120803E-2</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="16">
         <v>6.10032791581889E-5</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
-      <c r="A26" t="s">
+    <row r="26" spans="1:6" ht="14.65" thickBot="1">
+      <c r="A26" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C26" s="1">
+      <c r="B26" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="10">
         <v>4.9999999999970699</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26" s="10">
         <v>6.1933690638285901</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="10">
         <v>7.2097431803564902</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="11">
         <v>10.137190628483401</v>
       </c>
+    </row>
+    <row r="27" spans="1:6" ht="14.65" thickBot="1"/>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7">
+        <v>0.86020628874092497</v>
+      </c>
+      <c r="D29" s="7">
+        <v>0.47307790872501398</v>
+      </c>
+      <c r="E29" s="7">
+        <v>0.57768199186856595</v>
+      </c>
+      <c r="F29" s="8"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7">
+        <v>291.012430076371</v>
+      </c>
+      <c r="D30" s="7">
+        <v>187.18141793073599</v>
+      </c>
+      <c r="E30" s="7">
+        <v>216.416644193221</v>
+      </c>
+      <c r="F30" s="8"/>
+    </row>
+    <row r="31" spans="1:6" ht="14.65" thickBot="1">
+      <c r="A31" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10">
+        <v>4.9995641037455103</v>
+      </c>
+      <c r="D31" s="10">
+        <v>0.41654188856011598</v>
+      </c>
+      <c r="E31" s="10">
+        <v>1.99992429606876</v>
+      </c>
+      <c r="F31" s="11"/>
+    </row>
+    <row r="32" spans="1:6" ht="14.65" thickBot="1"/>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" s="7">
+        <v>0.51147134178464604</v>
+      </c>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35" s="7">
+        <v>174.27328315329299</v>
+      </c>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="15">
+        <v>4.8750259203261E-5</v>
+      </c>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.65" thickBot="1">
+      <c r="A37" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="10">
+        <v>7.9999406847385499</v>
+      </c>
+      <c r="F37" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
